--- a/data/trans_dic/P1002-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09181821865605878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1090595067161181</v>
+        <v>0.109059506716118</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1285480413555089</v>
@@ -685,7 +685,7 @@
         <v>0.2055784911979305</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2180296771909602</v>
+        <v>0.2180296771909603</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1160756920837334</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.083648870379762</v>
+        <v>0.08112416136020195</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1080097957762215</v>
+        <v>0.109090623872483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07306775574377984</v>
+        <v>0.07172766523311636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08633929116102096</v>
+        <v>0.08716839364954661</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1118716516898455</v>
+        <v>0.110897621311912</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2074891581695827</v>
+        <v>0.2087707056506669</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1786652729427657</v>
+        <v>0.1789408140429798</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1957873367907651</v>
+        <v>0.1957538680527697</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1026238959804115</v>
+        <v>0.103790903640447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1727213262327056</v>
+        <v>0.1707552632325338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1389190820420724</v>
+        <v>0.1390227533779142</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1572243507526568</v>
+        <v>0.1571887609687606</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1205748494314021</v>
+        <v>0.118469583783779</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1531304049790418</v>
+        <v>0.1536330154986246</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1131419557335932</v>
+        <v>0.1123426501563111</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1364298976721651</v>
+        <v>0.1363775512899939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1483419611254846</v>
+        <v>0.1486737259193987</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2549674231680176</v>
+        <v>0.2552153035802717</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2361953344613295</v>
+        <v>0.2327811341514894</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2408403574504857</v>
+        <v>0.2407218109881747</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1288710322825548</v>
+        <v>0.1293774928518171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2043542272357182</v>
+        <v>0.2038591506529115</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1755818816053645</v>
+        <v>0.1748638543993481</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1909413664050929</v>
+        <v>0.1900797635774219</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04628363688503846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05034269444736877</v>
+        <v>0.05034269444736879</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06004186691713423</v>
@@ -833,7 +833,7 @@
         <v>0.06030950603373905</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06381091305465982</v>
+        <v>0.06381091305465983</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02038759067081591</v>
+        <v>0.02059175625108559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03608730393457042</v>
+        <v>0.03600642134355365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0374817512205931</v>
+        <v>0.03742212132246273</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04145415818037085</v>
+        <v>0.04133972488359189</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04886130460813269</v>
+        <v>0.04882568564117596</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08051439869702555</v>
+        <v>0.0808713086507806</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06283627596130267</v>
+        <v>0.06309288990170826</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0666894670641557</v>
+        <v>0.06742363124683609</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0366225349016099</v>
+        <v>0.03628001437851452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06056062152789631</v>
+        <v>0.06011243189363358</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05289196288238713</v>
+        <v>0.05274974874535882</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05665913124003689</v>
+        <v>0.05638790858158301</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03722726724848284</v>
+        <v>0.03689444678300452</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05537331686395016</v>
+        <v>0.05563161441495523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05605263312567053</v>
+        <v>0.05788200402801814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06004091891767902</v>
+        <v>0.06051459748801917</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07248178335429203</v>
+        <v>0.07193345716040482</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1111240841340212</v>
+        <v>0.1103875103706749</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0878036379766574</v>
+        <v>0.08700072647539127</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08866977565177102</v>
+        <v>0.08898880982180012</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05165307444082526</v>
+        <v>0.05032841273006335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07745599932669703</v>
+        <v>0.07761180793531954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0682582198281637</v>
+        <v>0.06881721540035493</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.071590381963587</v>
+        <v>0.07125416179458201</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02933411773062801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03768250401627966</v>
+        <v>0.03768250401627964</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04707581187831458</v>
@@ -969,7 +969,7 @@
         <v>0.03707750495852601</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05583948160047848</v>
+        <v>0.05583948160047847</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02234364009331075</v>
+        <v>0.02198021369629697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01601594742014506</v>
+        <v>0.01644187738591588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01554703911012987</v>
+        <v>0.01656496533387067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02424582680635117</v>
+        <v>0.02410707162218327</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03043316606704533</v>
+        <v>0.03023026686222807</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03015606059715411</v>
+        <v>0.02897100476680859</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0306323550161194</v>
+        <v>0.03027509040912802</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05661150770660733</v>
+        <v>0.05542766912661156</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03039816554117563</v>
+        <v>0.03012497180912829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02723800110451336</v>
+        <v>0.0271620071099286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02582578125181548</v>
+        <v>0.02696522944204365</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04389809674674662</v>
+        <v>0.04442416914683549</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05632951703805013</v>
+        <v>0.05645368941757432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05621082694668648</v>
+        <v>0.05647023661111712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04835398319917456</v>
+        <v>0.05111046776958754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05439032709921421</v>
+        <v>0.056757615325802</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07110354097863696</v>
+        <v>0.06931328150173882</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07322308472163673</v>
+        <v>0.07191048187452291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06654172438799269</v>
+        <v>0.06557416440944727</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09391473463426901</v>
+        <v>0.09263896422071795</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05554236455291311</v>
+        <v>0.05529301308279139</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05843070665896595</v>
+        <v>0.05500809305891335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05004374817727411</v>
+        <v>0.0517072694784592</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0694469788699809</v>
+        <v>0.06936041307627885</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05884690440273348</v>
+        <v>0.05850237428018003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04662455062346318</v>
+        <v>0.04633476659891002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04951263572928064</v>
+        <v>0.05042868864337335</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1282010588761711</v>
+        <v>0.128019413460175</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09585000309861702</v>
+        <v>0.09567432034974847</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09865163282050038</v>
+        <v>0.09996534327484964</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0967574726126932</v>
+        <v>0.096820053009032</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07438015236681676</v>
+        <v>0.07428402168942035</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07756842459775895</v>
+        <v>0.07748393011564422</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07812111613027478</v>
+        <v>0.07712041944108189</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0624617731751833</v>
+        <v>0.0625018409074117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06599098711644504</v>
+        <v>0.06619243523880321</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1508299081489526</v>
+        <v>0.1516751327831109</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1182038573355118</v>
+        <v>0.1174847150223987</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1169119323405358</v>
+        <v>0.1169659062137427</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.111090677286602</v>
+        <v>0.1116027146375253</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08800146922646301</v>
+        <v>0.08772213720146342</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08961396831923604</v>
+        <v>0.08975799853177627</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86302</v>
+        <v>83698</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>105271</v>
+        <v>106324</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55118</v>
+        <v>54108</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49897</v>
+        <v>50376</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>147124</v>
+        <v>145843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>277359</v>
+        <v>279073</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>177711</v>
+        <v>177985</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>160634</v>
+        <v>160607</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>240841</v>
+        <v>243580</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>399225</v>
+        <v>394681</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>242970</v>
+        <v>243152</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>219857</v>
+        <v>219808</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124400</v>
+        <v>122228</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>149247</v>
+        <v>149737</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>85348</v>
+        <v>84745</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>78845</v>
+        <v>78814</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>195086</v>
+        <v>195523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>340826</v>
+        <v>341157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>234934</v>
+        <v>231538</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>197598</v>
+        <v>197501</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>302439</v>
+        <v>303628</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>472341</v>
+        <v>471197</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>307094</v>
+        <v>305838</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>267006</v>
+        <v>265801</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34525</v>
+        <v>34870</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>70802</v>
+        <v>70643</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>77827</v>
+        <v>77703</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>92442</v>
+        <v>92187</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>77576</v>
+        <v>77519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>141528</v>
+        <v>142156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>124937</v>
+        <v>125448</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>144788</v>
+        <v>146382</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>120162</v>
+        <v>119038</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>225272</v>
+        <v>223604</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>214989</v>
+        <v>214411</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>249360</v>
+        <v>248166</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63041</v>
+        <v>62478</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108641</v>
+        <v>109147</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116387</v>
+        <v>120185</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>133890</v>
+        <v>134946</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115077</v>
+        <v>114207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>195334</v>
+        <v>194039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>174580</v>
+        <v>172984</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>192509</v>
+        <v>193201</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169478</v>
+        <v>165132</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>288118</v>
+        <v>288698</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>277448</v>
+        <v>279720</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>315073</v>
+        <v>313593</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12320</v>
+        <v>12120</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7707</v>
+        <v>7912</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8502</v>
+        <v>9059</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17253</v>
+        <v>17154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14499</v>
+        <v>14402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13831</v>
+        <v>13287</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16821</v>
+        <v>16625</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41602</v>
+        <v>40733</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31244</v>
+        <v>30963</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>25599</v>
+        <v>25527</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28306</v>
+        <v>29555</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>63497</v>
+        <v>64258</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31061</v>
+        <v>31129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27048</v>
+        <v>27172</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26444</v>
+        <v>27952</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38703</v>
+        <v>40388</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33875</v>
+        <v>33022</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33582</v>
+        <v>32980</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36541</v>
+        <v>36009</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69016</v>
+        <v>68078</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57088</v>
+        <v>56831</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>54914</v>
+        <v>51697</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>54849</v>
+        <v>56673</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100453</v>
+        <v>100327</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>201126</v>
+        <v>199949</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>157480</v>
+        <v>156501</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>174259</v>
+        <v>177483</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>455521</v>
+        <v>454875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>338552</v>
+        <v>337931</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>367616</v>
+        <v>372511</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>674493</v>
+        <v>674929</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>513946</v>
+        <v>513282</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>562052</v>
+        <v>561440</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>267002</v>
+        <v>263581</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>210972</v>
+        <v>211107</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>232254</v>
+        <v>232963</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>535925</v>
+        <v>538928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>417508</v>
+        <v>414968</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>435661</v>
+        <v>435862</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>774409</v>
+        <v>777979</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>608065</v>
+        <v>606135</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>649333</v>
+        <v>650376</v>
       </c>
     </row>
     <row r="20">
